--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959516648.484153</v>
+        <v>39858517.37168153</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8513.042517651371</v>
+        <v>957750.3240666491</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15938.1633590496</v>
+        <v>1744860.97427452</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23363.28420044783</v>
+        <v>2531971.624482393</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30809.83142690879</v>
+        <v>3319082.274690265</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38256.37865336976</v>
+        <v>4106192.924898137</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45702.92587983073</v>
+        <v>4893303.575106009</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53149.47310629169</v>
+        <v>5680414.225313878</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60596.02033275266</v>
+        <v>6467524.875521746</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68042.56755921362</v>
+        <v>7254635.525729614</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75489.11478567457</v>
+        <v>8041746.175937483</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82935.66201213551</v>
+        <v>8828856.826145357</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90382.20923859645</v>
+        <v>9615967.476353234</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97828.75646505739</v>
+        <v>10403078.12656111</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105275.3036915183</v>
+        <v>11190188.77676899</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>112721.8509179792</v>
+        <v>11977299.42697687</v>
       </c>
     </row>
   </sheetData>
